--- a/academycity/data/mm/datasets/excel/raw_data/data.xlsx
+++ b/academycity/data/mm/datasets/excel/raw_data/data.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dep" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="indep" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
   <si>
     <t xml:space="preserve">Algeria</t>
   </si>
@@ -385,6 +386,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -406,6 +408,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -480,10 +483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DI6"/>
+  <dimension ref="A1:DI2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1170,1367 +1173,1732 @@
         <v>740</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:DI5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>586.90982220394</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>277.049991750536</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1434.44599568473</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2281.80013236267</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10.2897401299865</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5451.30858186245</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>49.5517928286853</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>40.8163265306122</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>105.68278201866</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>673.450508788159</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>189.634768716439</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>9.00900900900901</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>23.6237080784645</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>71.7194794874342</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>3505.89777195282</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>34.703885326292</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>12.1188428459734</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>315.763260562796</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>26.0218450296849</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>112.195584194068</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>57.6504262335885</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>513.705103969754</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>369.417108251325</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>323.648511844503</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>591.497775580821</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>3341.61126319906</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>190.653625213476</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>319.265853390482</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>79.852078003053</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>142.348008385744</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>7.68166089965398</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>440.459110473458</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>2777.84577723378</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>1842.92187783216</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>2402.70935960591</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>57.1808510638298</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>2562.91024221988</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>46.6858353510896</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>456.91564324542</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>136.598604290514</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>98.6565069179868</v>
+      </c>
+      <c r="AQ2" s="0" t="n">
+        <v>28.6640505033271</v>
+      </c>
+      <c r="AR2" s="0" t="n">
+        <v>186.469041357877</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>5512.64662756598</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>800.642782871727</v>
+      </c>
+      <c r="AU2" s="0" t="n">
+        <v>11.9454170244411</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>114.023896562722</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>300.955414012739</v>
+      </c>
+      <c r="AX2" s="0" t="n">
+        <v>2925.98870056497</v>
+      </c>
+      <c r="AY2" s="0" t="n">
+        <v>1478.85660288212</v>
+      </c>
+      <c r="AZ2" s="0" t="n">
+        <v>1355.59168094994</v>
+      </c>
+      <c r="BA2" s="0" t="n">
+        <v>244.915620943315</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>1467.14808619176</v>
+      </c>
+      <c r="BC2" s="0" t="n">
+        <v>298.411497730711</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>48.2109606964924</v>
+      </c>
+      <c r="BE2" s="0" t="n">
+        <v>742.096750477871</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>14.9130074565037</v>
+      </c>
+      <c r="BG2" s="0" t="n">
+        <v>15.9722222222222</v>
+      </c>
+      <c r="BH2" s="0" t="n">
+        <v>198.814409484724</v>
+      </c>
+      <c r="BI2" s="0" t="n">
+        <v>27.0670749777734</v>
+      </c>
+      <c r="BJ2" s="0" t="n">
+        <v>34.3543046357616</v>
+      </c>
+      <c r="BK2" s="0" t="n">
+        <v>985.009887095745</v>
+      </c>
+      <c r="BL2" s="0" t="n">
+        <v>16.6463662200568</v>
+      </c>
+      <c r="BM2" s="0" t="n">
+        <v>206.401766004415</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>429.133858267717</v>
+      </c>
+      <c r="BO2" s="0" t="n">
+        <v>354.561717352415</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>100.009238728751</v>
+      </c>
+      <c r="BQ2" s="0" t="n">
+        <v>5.68643379366369</v>
+      </c>
+      <c r="BR2" s="0" t="n">
+        <v>9.88142292490119</v>
+      </c>
+      <c r="BS2" s="0" t="n">
+        <v>4709.97791885178</v>
+      </c>
+      <c r="BT2" s="0" t="n">
+        <v>1748.1662591687</v>
+      </c>
+      <c r="BU2" s="0" t="n">
+        <v>88.7191539365452</v>
+      </c>
+      <c r="BV2" s="0" t="n">
+        <v>39.6388123660851</v>
+      </c>
+      <c r="BW2" s="0" t="n">
+        <v>150.824558873023</v>
+      </c>
+      <c r="BX2" s="0" t="n">
+        <v>4812.42475319047</v>
+      </c>
+      <c r="BY2" s="0" t="n">
+        <v>3559.05511811024</v>
+      </c>
+      <c r="BZ2" s="0" t="n">
+        <v>28.9047830031437</v>
+      </c>
+      <c r="CA2" s="0" t="n">
+        <v>154.130133825565</v>
+      </c>
+      <c r="CB2" s="0" t="n">
+        <v>259.459459459459</v>
+      </c>
+      <c r="CC2" s="0" t="n">
+        <v>84.2338597949571</v>
+      </c>
+      <c r="CD2" s="0" t="n">
+        <v>152.831931048635</v>
+      </c>
+      <c r="CE2" s="0" t="n">
+        <v>84.9514115542771</v>
+      </c>
+      <c r="CF2" s="0" t="n">
+        <v>308.846060801548</v>
+      </c>
+      <c r="CG2" s="0" t="n">
+        <v>567.875337129158</v>
+      </c>
+      <c r="CH2" s="0" t="n">
+        <v>21.6314398943197</v>
+      </c>
+      <c r="CI2" s="0" t="n">
+        <v>2219.9693028516</v>
+      </c>
+      <c r="CJ2" s="0" t="n">
+        <v>88.156862745098</v>
+      </c>
+      <c r="CK2" s="0" t="n">
+        <v>36.2925739810162</v>
+      </c>
+      <c r="CL2" s="0" t="n">
+        <v>8337.71929824562</v>
+      </c>
+      <c r="CM2" s="0" t="n">
+        <v>13.7213510253317</v>
+      </c>
+      <c r="CN2" s="0" t="n">
+        <v>520.410118819471</v>
+      </c>
+      <c r="CO2" s="0" t="n">
+        <v>631.300770672777</v>
+      </c>
+      <c r="CP2" s="0" t="n">
+        <v>83.5541195476575</v>
+      </c>
+      <c r="CQ2" s="0" t="n">
+        <v>16.5637905768462</v>
+      </c>
+      <c r="CR2" s="0" t="n">
+        <v>271.623672230653</v>
+      </c>
+      <c r="CS2" s="0" t="n">
+        <v>3648.02395209581</v>
+      </c>
+      <c r="CT2" s="0" t="n">
+        <v>4240.03091190108</v>
+      </c>
+      <c r="CU2" s="0" t="n">
+        <v>157.737808983361</v>
+      </c>
+      <c r="CV2" s="0" t="n">
+        <v>11.3432835820896</v>
+      </c>
+      <c r="CW2" s="0" t="n">
+        <v>139.228874203261</v>
+      </c>
+      <c r="CX2" s="0" t="n">
+        <v>63.8870208473436</v>
+      </c>
+      <c r="CY2" s="0" t="n">
+        <v>1815.78947368421</v>
+      </c>
+      <c r="CZ2" s="0" t="n">
+        <v>239.393939393939</v>
+      </c>
+      <c r="DA2" s="0" t="n">
+        <v>158.25478264328</v>
+      </c>
+      <c r="DB2" s="0" t="n">
+        <v>26.6125704854903</v>
+      </c>
+      <c r="DC2" s="0" t="n">
+        <v>1786.22210461321</v>
+      </c>
+      <c r="DD2" s="0" t="n">
+        <v>919.684437047124</v>
+      </c>
+      <c r="DE2" s="0" t="n">
+        <v>302.09371884347</v>
+      </c>
+      <c r="DF2" s="0" t="n">
+        <v>842.455362352667</v>
+      </c>
+      <c r="DG2" s="0" t="n">
+        <v>58.7418138519548</v>
+      </c>
+      <c r="DH2" s="0" t="n">
+        <v>117.014925373134</v>
+      </c>
+      <c r="DI2" s="0" t="n">
+        <v>129.047232215388</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>586.90982220394</v>
+        <v>2.24812962609329</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>277.049991750536</v>
+        <v>13.836328364483</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1434.44599568473</v>
+        <v>71.7222997842366</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2281.80013236267</v>
+        <v>706.424401370261</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>10.2897401299865</v>
+        <v>0.0423809157251673</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>5451.30858186245</v>
+        <v>1253.76180172094</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>49.5517928286853</v>
+        <v>6.03415279165286</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>40.8163265306122</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>105.68278201866</v>
+        <v>1.03132769618112</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>673.450508788159</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>189.634768716439</v>
+        <v>26.349873860915</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>9.00900900900901</v>
+        <v>0.367499008787885</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>23.6237080784645</v>
+        <v>0.0938385955210922</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>71.7194794874342</v>
+        <v>0.278197932434507</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3505.89777195282</v>
+        <v>1402.35910878113</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>34.703885326292</v>
+        <v>0.140297957787852</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>12.1188428459734</v>
+        <v>0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>315.763260562796</v>
+        <v>3.1368135581592</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>26.0218450296849</v>
+        <v>1.56131070178109</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>112.195584194068</v>
+        <v>1.18098749772455</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>57.6504262335885</v>
+        <v>0.24673872622564</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>513.705103969754</v>
+        <v>2.09147660749795</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>369.417108251325</v>
+        <v>18.083343461982</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>323.648511844503</v>
+        <v>6.29452572166285</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>591.497775580821</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>3341.61126319906</v>
+        <v>835.453295867897</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>190.653625213476</v>
+        <v>7.52947408953452</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>319.265853390482</v>
+        <v>1.29657849449384</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>79.852078003053</v>
+        <v>0.295074830448664</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>142.348008385744</v>
+        <v>13.5696111057375</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>7.68166089965398</v>
+        <v>0.0326653217807633</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>440.459110473458</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>2777.84577723378</v>
+        <v>722.209552189361</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>1842.92187783216</v>
+        <v>608.342523218325</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <v>2402.70935960591</v>
+        <v>70.8574195696256</v>
       </c>
       <c r="AK3" s="0" t="n">
-        <v>57.1808510638298</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="0" t="n">
-        <v>2562.91024221988</v>
+        <v>1112.81008337363</v>
       </c>
       <c r="AM3" s="0" t="n">
-        <v>46.6858353510896</v>
+        <v>0.194072653157962</v>
       </c>
       <c r="AN3" s="0" t="n">
-        <v>456.91564324542</v>
+        <v>13.7070553536736</v>
       </c>
       <c r="AO3" s="0" t="n">
-        <v>136.598604290514</v>
+        <v>1.3346171921422</v>
       </c>
       <c r="AP3" s="0" t="n">
-        <v>98.6565069179868</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="0" t="n">
-        <v>28.6640505033271</v>
+        <v>2.62934499260027</v>
       </c>
       <c r="AR3" s="0" t="n">
-        <v>186.469041357877</v>
+        <v>0.736280058279398</v>
       </c>
       <c r="AS3" s="0" t="n">
-        <v>5512.64662756598</v>
+        <v>1322.98669403614</v>
       </c>
       <c r="AT3" s="0" t="n">
-        <v>800.642782871727</v>
+        <v>262.482423932357</v>
       </c>
       <c r="AU3" s="0" t="n">
-        <v>11.9454170244411</v>
+        <v>0.467676767126323</v>
       </c>
       <c r="AV3" s="0" t="n">
-        <v>114.023896562722</v>
+        <v>1.14428962146364</v>
       </c>
       <c r="AW3" s="0" t="n">
-        <v>300.955414012739</v>
+        <v>1.19288711080217</v>
       </c>
       <c r="AX3" s="0" t="n">
-        <v>2925.98870056497</v>
+        <v>878.272465137891</v>
       </c>
       <c r="AY3" s="0" t="n">
-        <v>1478.85660288212</v>
+        <v>310.559886605244</v>
       </c>
       <c r="AZ3" s="0" t="n">
-        <v>1355.59168094994</v>
+        <v>433.788793684654</v>
       </c>
       <c r="BA3" s="0" t="n">
-        <v>244.915620943315</v>
+        <v>4.89810047163688</v>
       </c>
       <c r="BB3" s="0" t="n">
-        <v>1467.14808619176</v>
+        <v>909.631813438893</v>
       </c>
       <c r="BC3" s="0" t="n">
-        <v>298.411497730711</v>
+        <v>41.7776096822996</v>
       </c>
       <c r="BD3" s="0" t="n">
-        <v>48.2109606964924</v>
+        <v>0.974566757772043</v>
       </c>
       <c r="BE3" s="0" t="n">
-        <v>742.096750477871</v>
+        <v>267.156506201676</v>
       </c>
       <c r="BF3" s="0" t="n">
-        <v>14.9130074565037</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="0" t="n">
-        <v>15.9722222222222</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="0" t="n">
-        <v>198.814409484724</v>
+        <v>0.793650071310187</v>
       </c>
       <c r="BI3" s="0" t="n">
-        <v>27.0670749777734</v>
+        <v>0.274518483058953</v>
       </c>
       <c r="BJ3" s="0" t="n">
-        <v>34.3543046357616</v>
+        <v>0.342761853881861</v>
       </c>
       <c r="BK3" s="0" t="n">
-        <v>985.009887095745</v>
+        <v>186.114991176288</v>
       </c>
       <c r="BL3" s="0" t="n">
-        <v>16.6463662200568</v>
+        <v>0.166099475220187</v>
       </c>
       <c r="BM3" s="0" t="n">
-        <v>206.401766004415</v>
+        <v>0.846585279036432</v>
       </c>
       <c r="BN3" s="0" t="n">
-        <v>429.133858267717</v>
+        <v>4.27229826129219</v>
       </c>
       <c r="BO3" s="0" t="n">
-        <v>354.561717352415</v>
+        <v>54.9853078649109</v>
       </c>
       <c r="BP3" s="0" t="n">
-        <v>100.009238728751</v>
+        <v>0.971830777912158</v>
       </c>
       <c r="BQ3" s="0" t="n">
-        <v>5.68643379366369</v>
+        <v>0.0577261158195797</v>
       </c>
       <c r="BR3" s="0" t="n">
-        <v>9.88142292490119</v>
+        <v>0.0991081812255036</v>
       </c>
       <c r="BS3" s="0" t="n">
-        <v>4709.97791885178</v>
+        <v>753.615603818811</v>
       </c>
       <c r="BT3" s="0" t="n">
-        <v>1748.1662591687</v>
+        <v>88.0785932062456</v>
       </c>
       <c r="BU3" s="0" t="n">
-        <v>88.7191539365452</v>
+        <v>0.325632098267572</v>
       </c>
       <c r="BV3" s="0" t="n">
-        <v>39.6388123660851</v>
+        <v>0.386266798504446</v>
       </c>
       <c r="BW3" s="0" t="n">
-        <v>150.824558873023</v>
+        <v>0.598224786539161</v>
       </c>
       <c r="BX3" s="0" t="n">
-        <v>4812.42475319047</v>
+        <v>673.817993717544</v>
       </c>
       <c r="BY3" s="0" t="n">
-        <v>3559.05511811024</v>
+        <v>165.908532743911</v>
       </c>
       <c r="BZ3" s="0" t="n">
-        <v>28.9047830031437</v>
+        <v>0.578159926484222</v>
       </c>
       <c r="CA3" s="0" t="n">
-        <v>154.130133825565</v>
+        <v>0.598281106139367</v>
       </c>
       <c r="CB3" s="0" t="n">
-        <v>259.459459459459</v>
+        <v>0.99188276641759</v>
       </c>
       <c r="CC3" s="0" t="n">
-        <v>84.2338597949571</v>
+        <v>0.328336994722847</v>
       </c>
       <c r="CD3" s="0" t="n">
-        <v>152.831931048635</v>
+        <v>1.52572060721529</v>
       </c>
       <c r="CE3" s="0" t="n">
-        <v>84.9514115542771</v>
+        <v>4.24022463931491</v>
       </c>
       <c r="CF3" s="0" t="n">
-        <v>308.846060801548</v>
+        <v>108.099361094203</v>
       </c>
       <c r="CG3" s="0" t="n">
-        <v>567.875337129158</v>
+        <v>90.7457221263431</v>
       </c>
       <c r="CH3" s="0" t="n">
-        <v>21.6314398943197</v>
+        <v>0.0857252140430989</v>
       </c>
       <c r="CI3" s="0" t="n">
-        <v>2219.9693028516</v>
+        <v>20.7032115780682</v>
       </c>
       <c r="CJ3" s="0" t="n">
-        <v>88.156862745098</v>
+        <v>0.872956687213251</v>
       </c>
       <c r="CK3" s="0" t="n">
-        <v>36.2925739810162</v>
+        <v>0.145073215941203</v>
       </c>
       <c r="CL3" s="0" t="n">
-        <v>8337.71929824562</v>
+        <v>2668.0701754386</v>
       </c>
       <c r="CM3" s="0" t="n">
-        <v>13.7213510253317</v>
+        <v>0.168518518518519</v>
       </c>
       <c r="CN3" s="0" t="n">
-        <v>520.410118819471</v>
+        <v>10.4082422699972</v>
       </c>
       <c r="CO3" s="0" t="n">
-        <v>631.300770672777</v>
+        <v>170.403216736216</v>
       </c>
       <c r="CP3" s="0" t="n">
-        <v>83.5541195476575</v>
+        <v>0.81618482514834</v>
       </c>
       <c r="CQ3" s="0" t="n">
-        <v>16.5637905768462</v>
+        <v>0.218159031383259</v>
       </c>
       <c r="CR3" s="0" t="n">
-        <v>271.623672230653</v>
+        <v>0</v>
       </c>
       <c r="CS3" s="0" t="n">
-        <v>3648.02395209581</v>
+        <v>1532.09923469406</v>
       </c>
       <c r="CT3" s="0" t="n">
-        <v>4240.03091190108</v>
+        <v>1399.13127002882</v>
       </c>
       <c r="CU3" s="0" t="n">
-        <v>157.737808983361</v>
+        <v>1.53741664319138</v>
       </c>
       <c r="CV3" s="0" t="n">
-        <v>11.3432835820896</v>
+        <v>0.0452176955149309</v>
       </c>
       <c r="CW3" s="0" t="n">
-        <v>139.228874203261</v>
+        <v>9.5800799220863</v>
       </c>
       <c r="CX3" s="0" t="n">
-        <v>63.8870208473436</v>
+        <v>0.233630854028365</v>
       </c>
       <c r="CY3" s="0" t="n">
-        <v>1815.78947368421</v>
+        <v>54.8023587987378</v>
       </c>
       <c r="CZ3" s="0" t="n">
-        <v>239.393939393939</v>
+        <v>11.9691018118796</v>
       </c>
       <c r="DA3" s="0" t="n">
-        <v>158.25478264328</v>
+        <v>8.09100331064172</v>
       </c>
       <c r="DB3" s="0" t="n">
-        <v>26.6125704854903</v>
+        <v>0.10558278525887</v>
       </c>
       <c r="DC3" s="0" t="n">
-        <v>1786.22210461321</v>
+        <v>572.952899179894</v>
       </c>
       <c r="DD3" s="0" t="n">
-        <v>919.684437047124</v>
+        <v>441.44852978262</v>
       </c>
       <c r="DE3" s="0" t="n">
-        <v>302.09371884347</v>
+        <v>3.01801045048371</v>
       </c>
       <c r="DF3" s="0" t="n">
-        <v>842.455362352667</v>
+        <v>3.33388097527679</v>
       </c>
       <c r="DG3" s="0" t="n">
-        <v>58.7418138519548</v>
+        <v>5.52049239310755</v>
       </c>
       <c r="DH3" s="0" t="n">
-        <v>117.014925373134</v>
+        <v>0.4585873404157</v>
       </c>
       <c r="DI3" s="0" t="n">
-        <v>129.047232215388</v>
+        <v>1.25503212013186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2.24812962609329</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>13.836328364483</v>
+        <v>36</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>71.7222997842366</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>706.424401370261</v>
+        <v>27</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.0423809157251673</v>
+        <v>5</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1253.76180172094</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>6.03415279165286</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.03132769618112</v>
+        <v>20</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>26.349873860915</v>
+        <v>11</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.367499008787885</v>
+        <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.0938385955210922</v>
+        <v>1</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.278197932434507</v>
+        <v>2</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>1402.35910878113</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0.140297957787852</v>
+        <v>1</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>3.1368135581592</v>
+        <v>16</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>1.56131070178109</v>
+        <v>2</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>1.18098749772455</v>
+        <v>13</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.24673872622564</v>
+        <v>2</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>2.09147660749795</v>
+        <v>5.80742</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>18.083343461982</v>
+        <v>23</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>6.29452572166285</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>835.453295867897</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>7.52947408953452</v>
+        <v>18</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>1.29657849449384</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>0.295074830448664</v>
+        <v>23</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>13.5696111057375</v>
+        <v>14</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>0.0326653217807633</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="0" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH4" s="0" t="n">
-        <v>722.209552189361</v>
+        <v>33</v>
       </c>
       <c r="AI4" s="0" t="n">
-        <v>608.342523218325</v>
+        <v>30</v>
       </c>
       <c r="AJ4" s="0" t="n">
-        <v>70.8574195696256</v>
+        <v>4</v>
       </c>
       <c r="AK4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AL4" s="0" t="n">
-        <v>1112.81008337363</v>
+        <v>30</v>
       </c>
       <c r="AM4" s="0" t="n">
-        <v>0.194072653157962</v>
+        <v>2</v>
       </c>
       <c r="AN4" s="0" t="n">
-        <v>13.7070553536736</v>
+        <v>21</v>
       </c>
       <c r="AO4" s="0" t="n">
-        <v>1.3346171921422</v>
+        <v>8</v>
       </c>
       <c r="AP4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA4" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BB4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC4" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="BD4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="0" t="n">
+        <v>1.68262</v>
+      </c>
+      <c r="BN4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BP4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AQ4" s="0" t="n">
-        <v>2.62934499260027</v>
-      </c>
-      <c r="AR4" s="0" t="n">
-        <v>0.736280058279398</v>
-      </c>
-      <c r="AS4" s="0" t="n">
-        <v>1322.98669403614</v>
-      </c>
-      <c r="AT4" s="0" t="n">
-        <v>262.482423932357</v>
-      </c>
-      <c r="AU4" s="0" t="n">
-        <v>0.467676767126323</v>
-      </c>
-      <c r="AV4" s="0" t="n">
-        <v>1.14428962146364</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>1.19288711080217</v>
-      </c>
-      <c r="AX4" s="0" t="n">
-        <v>878.272465137891</v>
-      </c>
-      <c r="AY4" s="0" t="n">
-        <v>310.559886605244</v>
-      </c>
-      <c r="AZ4" s="0" t="n">
-        <v>433.788793684654</v>
-      </c>
-      <c r="BA4" s="0" t="n">
-        <v>4.89810047163688</v>
-      </c>
-      <c r="BB4" s="0" t="n">
-        <v>909.631813438893</v>
-      </c>
-      <c r="BC4" s="0" t="n">
-        <v>41.7776096822996</v>
-      </c>
-      <c r="BD4" s="0" t="n">
-        <v>0.974566757772043</v>
-      </c>
-      <c r="BE4" s="0" t="n">
-        <v>267.156506201676</v>
-      </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BR4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS4" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BT4" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="BU4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX4" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BY4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA4" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="CB4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="CE4" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="CF4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="CG4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="CH4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="BG4" s="0" t="n">
+      <c r="CI4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="CJ4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CL4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CM4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO4" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="CP4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="CQ4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR4" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="CS4" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="CT4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="CU4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="CV4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="BH4" s="0" t="n">
-        <v>0.793650071310187</v>
-      </c>
-      <c r="BI4" s="0" t="n">
-        <v>0.274518483058953</v>
-      </c>
-      <c r="BJ4" s="0" t="n">
-        <v>0.342761853881861</v>
-      </c>
-      <c r="BK4" s="0" t="n">
-        <v>186.114991176288</v>
-      </c>
-      <c r="BL4" s="0" t="n">
-        <v>0.166099475220187</v>
-      </c>
-      <c r="BM4" s="0" t="n">
-        <v>0.846585279036432</v>
-      </c>
-      <c r="BN4" s="0" t="n">
-        <v>4.27229826129219</v>
-      </c>
-      <c r="BO4" s="0" t="n">
-        <v>54.9853078649109</v>
-      </c>
-      <c r="BP4" s="0" t="n">
-        <v>0.971830777912158</v>
-      </c>
-      <c r="BQ4" s="0" t="n">
-        <v>0.0577261158195797</v>
-      </c>
-      <c r="BR4" s="0" t="n">
-        <v>0.0991081812255036</v>
-      </c>
-      <c r="BS4" s="0" t="n">
-        <v>753.615603818811</v>
-      </c>
-      <c r="BT4" s="0" t="n">
-        <v>88.0785932062456</v>
-      </c>
-      <c r="BU4" s="0" t="n">
-        <v>0.325632098267572</v>
-      </c>
-      <c r="BV4" s="0" t="n">
-        <v>0.386266798504446</v>
-      </c>
-      <c r="BW4" s="0" t="n">
-        <v>0.598224786539161</v>
-      </c>
-      <c r="BX4" s="0" t="n">
-        <v>673.817993717544</v>
-      </c>
-      <c r="BY4" s="0" t="n">
-        <v>165.908532743911</v>
-      </c>
-      <c r="BZ4" s="0" t="n">
-        <v>0.578159926484222</v>
-      </c>
-      <c r="CA4" s="0" t="n">
-        <v>0.598281106139367</v>
-      </c>
-      <c r="CB4" s="0" t="n">
-        <v>0.99188276641759</v>
-      </c>
-      <c r="CC4" s="0" t="n">
-        <v>0.328336994722847</v>
-      </c>
-      <c r="CD4" s="0" t="n">
-        <v>1.52572060721529</v>
-      </c>
-      <c r="CE4" s="0" t="n">
-        <v>4.24022463931491</v>
-      </c>
-      <c r="CF4" s="0" t="n">
-        <v>108.099361094203</v>
-      </c>
-      <c r="CG4" s="0" t="n">
-        <v>90.7457221263431</v>
-      </c>
-      <c r="CH4" s="0" t="n">
-        <v>0.0857252140430989</v>
-      </c>
-      <c r="CI4" s="0" t="n">
-        <v>20.7032115780682</v>
-      </c>
-      <c r="CJ4" s="0" t="n">
-        <v>0.872956687213251</v>
-      </c>
-      <c r="CK4" s="0" t="n">
-        <v>0.145073215941203</v>
-      </c>
-      <c r="CL4" s="0" t="n">
-        <v>2668.0701754386</v>
-      </c>
-      <c r="CM4" s="0" t="n">
-        <v>0.168518518518519</v>
-      </c>
-      <c r="CN4" s="0" t="n">
-        <v>10.4082422699972</v>
-      </c>
-      <c r="CO4" s="0" t="n">
-        <v>170.403216736216</v>
-      </c>
-      <c r="CP4" s="0" t="n">
-        <v>0.81618482514834</v>
-      </c>
-      <c r="CQ4" s="0" t="n">
-        <v>0.218159031383259</v>
-      </c>
-      <c r="CR4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="0" t="n">
-        <v>1532.09923469406</v>
-      </c>
-      <c r="CT4" s="0" t="n">
-        <v>1399.13127002882</v>
-      </c>
-      <c r="CU4" s="0" t="n">
-        <v>1.53741664319138</v>
-      </c>
-      <c r="CV4" s="0" t="n">
-        <v>0.0452176955149309</v>
-      </c>
       <c r="CW4" s="0" t="n">
-        <v>9.5800799220863</v>
+        <v>20</v>
       </c>
       <c r="CX4" s="0" t="n">
-        <v>0.233630854028365</v>
+        <v>2</v>
       </c>
       <c r="CY4" s="0" t="n">
-        <v>54.8023587987378</v>
+        <v>4</v>
       </c>
       <c r="CZ4" s="0" t="n">
-        <v>11.9691018118796</v>
+        <v>6</v>
       </c>
       <c r="DA4" s="0" t="n">
-        <v>8.09100331064172</v>
+        <v>9</v>
       </c>
       <c r="DB4" s="0" t="n">
-        <v>0.10558278525887</v>
+        <v>1</v>
       </c>
       <c r="DC4" s="0" t="n">
-        <v>572.952899179894</v>
+        <v>22</v>
       </c>
       <c r="DD4" s="0" t="n">
-        <v>441.44852978262</v>
+        <v>57</v>
       </c>
       <c r="DE4" s="0" t="n">
-        <v>3.01801045048371</v>
+        <v>32</v>
       </c>
       <c r="DF4" s="0" t="n">
-        <v>3.33388097527679</v>
+        <v>26</v>
       </c>
       <c r="DG4" s="0" t="n">
-        <v>5.52049239310755</v>
+        <v>2</v>
       </c>
       <c r="DH4" s="0" t="n">
-        <v>0.4585873404157</v>
+        <v>2</v>
       </c>
       <c r="DI4" s="0" t="n">
-        <v>1.25503212013186</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>6</v>
+        <v>39.116</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>36</v>
+        <v>22.525</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>28</v>
+        <v>15.7</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>27</v>
+        <v>11.6</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5</v>
+        <v>39.606</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
+        <v>47.086</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0</v>
+        <v>41.823</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>20</v>
+        <v>37.715</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1</v>
+        <v>40.042</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>11</v>
+        <v>28.69</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1</v>
+        <v>48.457</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1</v>
+        <v>51.716</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>2</v>
+        <v>46.216</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>55</v>
+        <v>14.9</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>1</v>
+        <v>42.261</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>0</v>
+        <v>50.29</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>16</v>
+        <v>23.653</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>2</v>
+        <v>21.04</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>13</v>
+        <v>29.167</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>2</v>
+        <v>47.355</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>5.80742</v>
+        <v>39.935</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>23</v>
+        <v>29.772</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>3</v>
+        <v>44.577</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>21</v>
+        <v>17.217</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>18</v>
+        <v>32.218</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>33</v>
+        <v>32.376</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>23</v>
+        <v>35.695</v>
       </c>
       <c r="AE5" s="0" t="n">
+        <v>34.451</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>31.445</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>37.968</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>49.067</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>41.247</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AO5" s="0" t="n">
+        <v>40.874</v>
+      </c>
+      <c r="AP5" s="0" t="n">
+        <v>47.369</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
+        <v>41.438</v>
+      </c>
+      <c r="AR5" s="0" t="n">
+        <v>40.906</v>
+      </c>
+      <c r="AS5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="AF5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN5" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="AT5" s="0" t="n">
-        <v>15</v>
+        <v>12.2</v>
       </c>
       <c r="AU5" s="0" t="n">
-        <v>6</v>
+        <v>33.127</v>
       </c>
       <c r="AV5" s="0" t="n">
-        <v>7</v>
+        <v>29.607</v>
       </c>
       <c r="AW5" s="0" t="n">
-        <v>5</v>
+        <v>42.208</v>
       </c>
       <c r="AX5" s="0" t="n">
-        <v>22</v>
+        <v>17.6</v>
       </c>
       <c r="AY5" s="0" t="n">
-        <v>34</v>
+        <v>23.5</v>
       </c>
       <c r="AZ5" s="0" t="n">
-        <v>26</v>
+        <v>10.2</v>
       </c>
       <c r="BA5" s="0" t="n">
-        <v>4.4</v>
+        <v>28.066</v>
       </c>
       <c r="BB5" s="0" t="n">
-        <v>30</v>
+        <v>11.9</v>
       </c>
       <c r="BC5" s="0" t="n">
-        <v>37</v>
+        <v>37.358</v>
       </c>
       <c r="BD5" s="0" t="n">
-        <v>1</v>
+        <v>47.039</v>
       </c>
       <c r="BE5" s="0" t="n">
-        <v>32</v>
+        <v>16.1</v>
       </c>
       <c r="BF5" s="0" t="n">
-        <v>1</v>
+        <v>43.125</v>
       </c>
       <c r="BG5" s="0" t="n">
-        <v>2</v>
+        <v>38.266</v>
       </c>
       <c r="BH5" s="0" t="n">
-        <v>3</v>
+        <v>47.73</v>
       </c>
       <c r="BI5" s="0" t="n">
-        <v>5</v>
+        <v>43.521</v>
       </c>
       <c r="BJ5" s="0" t="n">
-        <v>1</v>
+        <v>53.233</v>
       </c>
       <c r="BK5" s="0" t="n">
-        <v>6</v>
+        <v>29.178</v>
       </c>
       <c r="BL5" s="0" t="n">
-        <v>1</v>
+        <v>48.402</v>
       </c>
       <c r="BM5" s="0" t="n">
-        <v>1.68262</v>
+        <v>41.663</v>
       </c>
       <c r="BN5" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="BO5" s="0" t="n">
-        <v>16</v>
+        <v>30.178</v>
       </c>
       <c r="BP5" s="0" t="n">
-        <v>9</v>
+        <v>34.974</v>
       </c>
       <c r="BQ5" s="0" t="n">
-        <v>0</v>
+        <v>44.656</v>
       </c>
       <c r="BR5" s="0" t="n">
-        <v>5</v>
+        <v>40.03</v>
       </c>
       <c r="BS5" s="0" t="n">
-        <v>31</v>
+        <v>12.3</v>
       </c>
       <c r="BT5" s="0" t="n">
-        <v>35</v>
+        <v>15.9</v>
       </c>
       <c r="BU5" s="0" t="n">
-        <v>10</v>
+        <v>40.581</v>
       </c>
       <c r="BV5" s="0" t="n">
-        <v>1</v>
+        <v>55.178</v>
       </c>
       <c r="BW5" s="0" t="n">
-        <v>3</v>
+        <v>45.516</v>
       </c>
       <c r="BX5" s="0" t="n">
-        <v>31</v>
+        <v>12.3</v>
       </c>
       <c r="BY5" s="0" t="n">
-        <v>1</v>
+        <v>46.214</v>
       </c>
       <c r="BZ5" s="0" t="n">
-        <v>5</v>
+        <v>42.46</v>
       </c>
       <c r="CA5" s="0" t="n">
-        <v>26</v>
+        <v>28.321</v>
       </c>
       <c r="CB5" s="0" t="n">
-        <v>2</v>
+        <v>36.486</v>
       </c>
       <c r="CC5" s="0" t="n">
-        <v>10</v>
+        <v>36.4</v>
       </c>
       <c r="CD5" s="0" t="n">
-        <v>24</v>
+        <v>32.414</v>
       </c>
       <c r="CE5" s="0" t="n">
-        <v>38</v>
+        <v>34.945</v>
       </c>
       <c r="CF5" s="0" t="n">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="CG5" s="0" t="n">
         <v>13</v>
       </c>
       <c r="CH5" s="0" t="n">
-        <v>0</v>
+        <v>52.342</v>
       </c>
       <c r="CI5" s="0" t="n">
-        <v>11</v>
+        <v>40.543</v>
       </c>
       <c r="CJ5" s="0" t="n">
-        <v>2</v>
+        <v>45.919</v>
       </c>
       <c r="CK5" s="0" t="n">
-        <v>1.8</v>
+        <v>46.35</v>
       </c>
       <c r="CL5" s="0" t="n">
-        <v>12</v>
+        <v>16.6</v>
       </c>
       <c r="CM5" s="0" t="n">
-        <v>4</v>
+        <v>46.732</v>
       </c>
       <c r="CN5" s="0" t="n">
-        <v>10</v>
+        <v>32.655</v>
       </c>
       <c r="CO5" s="0" t="n">
-        <v>27</v>
+        <v>11.9</v>
       </c>
       <c r="CP5" s="0" t="n">
-        <v>5</v>
+        <v>23.84</v>
       </c>
       <c r="CQ5" s="0" t="n">
-        <v>2</v>
+        <v>43.005</v>
       </c>
       <c r="CR5" s="0" t="n">
-        <v>4.4</v>
+        <v>47.307</v>
       </c>
       <c r="CS5" s="0" t="n">
-        <v>38</v>
+        <v>11.8</v>
       </c>
       <c r="CT5" s="0" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="CU5" s="0" t="n">
-        <v>17</v>
+        <v>40.817</v>
       </c>
       <c r="CV5" s="0" t="n">
-        <v>0</v>
+        <v>45.446</v>
       </c>
       <c r="CW5" s="0" t="n">
-        <v>20</v>
+        <v>22.197</v>
       </c>
       <c r="CX5" s="0" t="n">
-        <v>2</v>
+        <v>45.176</v>
       </c>
       <c r="CY5" s="0" t="n">
-        <v>4</v>
+        <v>26.805</v>
       </c>
       <c r="CZ5" s="0" t="n">
-        <v>6</v>
+        <v>32.032</v>
       </c>
       <c r="DA5" s="0" t="n">
-        <v>9</v>
+        <v>30.707</v>
       </c>
       <c r="DB5" s="0" t="n">
-        <v>1</v>
+        <v>49.435</v>
       </c>
       <c r="DC5" s="0" t="n">
-        <v>22</v>
+        <v>13.3</v>
       </c>
       <c r="DD5" s="0" t="n">
-        <v>57</v>
+        <v>15.8</v>
       </c>
       <c r="DE5" s="0" t="n">
-        <v>32</v>
+        <v>18.155</v>
       </c>
       <c r="DF5" s="0" t="n">
-        <v>26</v>
+        <v>31.235</v>
       </c>
       <c r="DG5" s="0" t="n">
-        <v>2</v>
+        <v>55.2</v>
       </c>
       <c r="DH5" s="0" t="n">
-        <v>2</v>
+        <v>44.401</v>
       </c>
       <c r="DI5" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>39.116</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>22.525</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>39.606</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>47.086</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>41.823</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>37.715</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>40.042</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>48.457</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>51.716</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>46.216</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>42.261</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>50.29</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>23.653</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>29.167</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>47.355</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>39.935</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>29.772</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>44.577</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>17.217</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>32.218</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>32.376</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>35.695</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>34.451</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>48.96</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>31.445</v>
-      </c>
-      <c r="AH6" s="0" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>37.968</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>49.067</v>
-      </c>
-      <c r="AL6" s="0" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM6" s="0" t="n">
-        <v>41.247</v>
-      </c>
-      <c r="AN6" s="0" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AO6" s="0" t="n">
-        <v>40.874</v>
-      </c>
-      <c r="AP6" s="0" t="n">
-        <v>47.369</v>
-      </c>
-      <c r="AQ6" s="0" t="n">
-        <v>41.438</v>
-      </c>
-      <c r="AR6" s="0" t="n">
-        <v>40.906</v>
-      </c>
-      <c r="AS6" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT6" s="0" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AU6" s="0" t="n">
-        <v>33.127</v>
-      </c>
-      <c r="AV6" s="0" t="n">
-        <v>29.607</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>42.208</v>
-      </c>
-      <c r="AX6" s="0" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="AY6" s="0" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AZ6" s="0" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="BA6" s="0" t="n">
-        <v>28.066</v>
-      </c>
-      <c r="BB6" s="0" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="BC6" s="0" t="n">
-        <v>37.358</v>
-      </c>
-      <c r="BD6" s="0" t="n">
-        <v>47.039</v>
-      </c>
-      <c r="BE6" s="0" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="BF6" s="0" t="n">
-        <v>43.125</v>
-      </c>
-      <c r="BG6" s="0" t="n">
-        <v>38.266</v>
-      </c>
-      <c r="BH6" s="0" t="n">
-        <v>47.73</v>
-      </c>
-      <c r="BI6" s="0" t="n">
-        <v>43.521</v>
-      </c>
-      <c r="BJ6" s="0" t="n">
-        <v>53.233</v>
-      </c>
-      <c r="BK6" s="0" t="n">
-        <v>29.178</v>
-      </c>
-      <c r="BL6" s="0" t="n">
-        <v>48.402</v>
-      </c>
-      <c r="BM6" s="0" t="n">
-        <v>41.663</v>
-      </c>
-      <c r="BN6" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="BO6" s="0" t="n">
-        <v>30.178</v>
-      </c>
-      <c r="BP6" s="0" t="n">
-        <v>34.974</v>
-      </c>
-      <c r="BQ6" s="0" t="n">
-        <v>44.656</v>
-      </c>
-      <c r="BR6" s="0" t="n">
-        <v>40.03</v>
-      </c>
-      <c r="BS6" s="0" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BT6" s="0" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="BU6" s="0" t="n">
-        <v>40.581</v>
-      </c>
-      <c r="BV6" s="0" t="n">
-        <v>55.178</v>
-      </c>
-      <c r="BW6" s="0" t="n">
-        <v>45.516</v>
-      </c>
-      <c r="BX6" s="0" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BY6" s="0" t="n">
-        <v>46.214</v>
-      </c>
-      <c r="BZ6" s="0" t="n">
-        <v>42.46</v>
-      </c>
-      <c r="CA6" s="0" t="n">
-        <v>28.321</v>
-      </c>
-      <c r="CB6" s="0" t="n">
-        <v>36.486</v>
-      </c>
-      <c r="CC6" s="0" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="CD6" s="0" t="n">
-        <v>32.414</v>
-      </c>
-      <c r="CE6" s="0" t="n">
-        <v>34.945</v>
-      </c>
-      <c r="CF6" s="0" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="CG6" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="CH6" s="0" t="n">
-        <v>52.342</v>
-      </c>
-      <c r="CI6" s="0" t="n">
-        <v>40.543</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
-        <v>45.919</v>
-      </c>
-      <c r="CK6" s="0" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="CL6" s="0" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="CM6" s="0" t="n">
-        <v>46.732</v>
-      </c>
-      <c r="CN6" s="0" t="n">
-        <v>32.655</v>
-      </c>
-      <c r="CO6" s="0" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="CP6" s="0" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="CQ6" s="0" t="n">
-        <v>43.005</v>
-      </c>
-      <c r="CR6" s="0" t="n">
-        <v>47.307</v>
-      </c>
-      <c r="CS6" s="0" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="CT6" s="0" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="CU6" s="0" t="n">
-        <v>40.817</v>
-      </c>
-      <c r="CV6" s="0" t="n">
-        <v>45.446</v>
-      </c>
-      <c r="CW6" s="0" t="n">
-        <v>22.197</v>
-      </c>
-      <c r="CX6" s="0" t="n">
-        <v>45.176</v>
-      </c>
-      <c r="CY6" s="0" t="n">
-        <v>26.805</v>
-      </c>
-      <c r="CZ6" s="0" t="n">
-        <v>32.032</v>
-      </c>
-      <c r="DA6" s="0" t="n">
-        <v>30.707</v>
-      </c>
-      <c r="DB6" s="0" t="n">
-        <v>49.435</v>
-      </c>
-      <c r="DC6" s="0" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="DD6" s="0" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="DE6" s="0" t="n">
-        <v>18.155</v>
-      </c>
-      <c r="DF6" s="0" t="n">
-        <v>31.235</v>
-      </c>
-      <c r="DG6" s="0" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="DH6" s="0" t="n">
-        <v>44.401</v>
-      </c>
-      <c r="DI6" s="0" t="n">
         <v>42.336</v>
       </c>
     </row>
